--- a/media/eb_order/eb_order_hide_formula.xlsx
+++ b/media/eb_order/eb_order_hide_formula.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>注　文　書</t>
   </si>
@@ -227,6 +227,10 @@
   </si>
   <si>
     <t>⑥ 振込手数料は受託者負担とさせて頂きます。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>{$ALLOWANCE_OTHER_MEMO$}</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -959,7 +963,7 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
     <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
@@ -981,17 +985,17 @@
       <c r="E3" s="47"/>
       <c r="F3" s="47"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="14.25">
       <c r="A4" s="36" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" ht="14.25">
       <c r="A5" s="35" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="19.5">
+    <row r="6" spans="1:9" ht="14.25">
       <c r="A6" s="6"/>
       <c r="F6" s="36" t="s">
         <v>2</v>
@@ -1016,7 +1020,7 @@
       </c>
       <c r="G9" s="37"/>
     </row>
-    <row r="10" spans="1:9" ht="19.5">
+    <row r="10" spans="1:9" ht="14.25">
       <c r="F10" s="38" t="s">
         <v>16</v>
       </c>
@@ -1146,7 +1150,9 @@
     <row r="24" spans="1:9" ht="21" customHeight="1">
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
-      <c r="C24" s="43"/>
+      <c r="C24" s="43" t="s">
+        <v>42</v>
+      </c>
       <c r="D24" s="23"/>
       <c r="E24" s="23"/>
       <c r="F24" s="23"/>
@@ -1160,7 +1166,7 @@
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
@@ -1173,7 +1179,7 @@
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
       <c r="C26" s="43" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D26" s="23"/>
       <c r="E26" s="23"/>
@@ -1419,7 +1425,7 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="81" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="9" max="49" man="1"/>
   </colBreaks>

--- a/media/eb_order/eb_order_hide_formula.xlsx
+++ b/media/eb_order/eb_order_hide_formula.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="510" windowWidth="18015" windowHeight="7650"/>
+    <workbookView xWindow="636" yWindow="516" windowWidth="18012" windowHeight="7656"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -170,10 +170,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>③ 請求書は毎月作業実績表（現場の承認印）を添付の上、翌月5日迄に送付する。</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>④ 延長/中止の場合には、両者協議の上、継続検討を行うものとする。</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -231,6 +227,10 @@
   </si>
   <si>
     <t>{$ALLOWANCE_OTHER_MEMO$}</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>③ 請求はイー・ビジネスからメール配信の「御請求書」に押印、郵送する。</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -963,7 +963,7 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18"/>
   <cols>
     <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
@@ -985,17 +985,17 @@
       <c r="E3" s="47"/>
       <c r="F3" s="47"/>
     </row>
-    <row r="4" spans="1:9" ht="14.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="36" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="14.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="35" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="14.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="19.8">
       <c r="A6" s="6"/>
       <c r="F6" s="36" t="s">
         <v>2</v>
@@ -1020,7 +1020,7 @@
       </c>
       <c r="G9" s="37"/>
     </row>
-    <row r="10" spans="1:9" ht="14.25">
+    <row r="10" spans="1:9" ht="19.8">
       <c r="F10" s="38" t="s">
         <v>16</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="18.95" customHeight="1">
+    <row r="15" spans="1:9" ht="18.899999999999999" customHeight="1">
       <c r="A15" s="1"/>
       <c r="G15" s="4"/>
     </row>
@@ -1094,7 +1094,7 @@
       <c r="D20" s="18"/>
       <c r="E20" s="19"/>
       <c r="F20" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="41" t="s">
@@ -1151,7 +1151,7 @@
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
       <c r="C24" s="43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D24" s="23"/>
       <c r="E24" s="23"/>
@@ -1162,11 +1162,11 @@
     </row>
     <row r="25" spans="1:9" ht="21" customHeight="1">
       <c r="A25" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
@@ -1179,7 +1179,7 @@
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
       <c r="C26" s="43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D26" s="23"/>
       <c r="E26" s="23"/>
@@ -1192,7 +1192,7 @@
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>
@@ -1285,11 +1285,11 @@
     </row>
     <row r="34" spans="1:9" ht="18.75" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34" s="15"/>
       <c r="C34" s="45" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D34" s="31"/>
       <c r="E34" s="31"/>
@@ -1302,7 +1302,7 @@
       <c r="A35" s="12"/>
       <c r="B35" s="13"/>
       <c r="C35" s="45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D35" s="31"/>
       <c r="E35" s="31"/>
@@ -1315,7 +1315,7 @@
       <c r="A36" s="12"/>
       <c r="B36" s="13"/>
       <c r="C36" s="45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D36" s="31"/>
       <c r="E36" s="31"/>
@@ -1328,7 +1328,7 @@
       <c r="A37" s="12"/>
       <c r="B37" s="13"/>
       <c r="C37" s="45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D37" s="31"/>
       <c r="E37" s="31"/>
@@ -1341,7 +1341,7 @@
       <c r="A38" s="16"/>
       <c r="B38" s="17"/>
       <c r="C38" s="46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
@@ -1425,7 +1425,7 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="78" orientation="portrait" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="9" max="49" man="1"/>
   </colBreaks>

--- a/media/eb_order/eb_order_hide_formula.xlsx
+++ b/media/eb_order/eb_order_hide_formula.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\ebusiness.old\media\eb_order\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F4C804-753C-4E36-A71C-656FA72C8240}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="636" yWindow="516" windowWidth="18012" windowHeight="7656"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,10 +83,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>TEL:{$TEL$}　FAX:03-6809-3238</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>{$AUTHOR_FIRST_NAME$}</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -233,11 +235,15 @@
     <t>③ 請求はイー・ビジネスからメール配信の「御請求書」に押印、郵送する。</t>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>TEL:{$TEL$}　FAX:03-5809-1069</t>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12">
     <font>
       <sz val="11"/>
@@ -664,6 +670,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -955,7 +964,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -975,7 +984,7 @@
     </row>
     <row r="2" spans="1:9" ht="27" customHeight="1">
       <c r="I2" s="40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="24" customHeight="1">
@@ -992,7 +1001,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="19.8">
@@ -1022,7 +1031,7 @@
     </row>
     <row r="10" spans="1:9" ht="19.8">
       <c r="F10" s="38" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="G10" s="37"/>
     </row>
@@ -1041,7 +1050,7 @@
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1">
       <c r="G14" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="18.899999999999999" customHeight="1">
@@ -1055,11 +1064,11 @@
     </row>
     <row r="18" spans="1:9" ht="27" customHeight="1">
       <c r="A18" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
@@ -1074,7 +1083,7 @@
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
@@ -1089,16 +1098,16 @@
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="19"/>
       <c r="F20" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I20" s="19"/>
     </row>
@@ -1108,7 +1117,7 @@
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
@@ -1117,17 +1126,17 @@
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I21" s="19"/>
     </row>
     <row r="22" spans="1:9" ht="27" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
@@ -1151,7 +1160,7 @@
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
       <c r="C24" s="43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D24" s="23"/>
       <c r="E24" s="23"/>
@@ -1162,11 +1171,11 @@
     </row>
     <row r="25" spans="1:9" ht="21" customHeight="1">
       <c r="A25" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
@@ -1179,7 +1188,7 @@
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
       <c r="C26" s="43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D26" s="23"/>
       <c r="E26" s="23"/>
@@ -1192,7 +1201,7 @@
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>
@@ -1205,7 +1214,7 @@
       <c r="A28" s="16"/>
       <c r="B28" s="17"/>
       <c r="C28" s="44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D28" s="25"/>
       <c r="E28" s="25"/>
@@ -1216,11 +1225,11 @@
     </row>
     <row r="29" spans="1:9" ht="27" customHeight="1">
       <c r="A29" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
@@ -1248,7 +1257,7 @@
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D31" s="29"/>
       <c r="E31" s="29"/>
@@ -1261,7 +1270,7 @@
       <c r="A32" s="12"/>
       <c r="B32" s="13"/>
       <c r="C32" s="45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D32" s="31"/>
       <c r="E32" s="31"/>
@@ -1274,7 +1283,7 @@
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D33" s="31"/>
       <c r="E33" s="31"/>
@@ -1285,11 +1294,11 @@
     </row>
     <row r="34" spans="1:9" ht="18.75" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" s="15"/>
       <c r="C34" s="45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D34" s="31"/>
       <c r="E34" s="31"/>
@@ -1302,7 +1311,7 @@
       <c r="A35" s="12"/>
       <c r="B35" s="13"/>
       <c r="C35" s="45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D35" s="31"/>
       <c r="E35" s="31"/>
@@ -1315,7 +1324,7 @@
       <c r="A36" s="12"/>
       <c r="B36" s="13"/>
       <c r="C36" s="45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D36" s="31"/>
       <c r="E36" s="31"/>
@@ -1328,7 +1337,7 @@
       <c r="A37" s="12"/>
       <c r="B37" s="13"/>
       <c r="C37" s="45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D37" s="31"/>
       <c r="E37" s="31"/>
@@ -1341,7 +1350,7 @@
       <c r="A38" s="16"/>
       <c r="B38" s="17"/>
       <c r="C38" s="46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>

--- a/media/eb_order/eb_order_hide_formula.xlsx
+++ b/media/eb_order/eb_order_hide_formula.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\ebusiness.old\media\eb_order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F4C804-753C-4E36-A71C-656FA72C8240}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DC8D19-853C-4FA6-9148-F917C16CF09D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3336" yWindow="696" windowWidth="14040" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -232,11 +232,11 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>③ 請求はイー・ビジネスからメール配信の「御請求書」に押印、郵送する。</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>TEL:{$TEL$}　FAX:03-5809-1069</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>③ 請求はWisdom Technologyからメール配信の「御請求書」に押印、郵送する。</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="10" spans="1:9" ht="19.8">
       <c r="F10" s="38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G10" s="37"/>
     </row>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="B34" s="15"/>
       <c r="C34" s="45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D34" s="31"/>
       <c r="E34" s="31"/>
@@ -1434,7 +1434,7 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="78" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="9" max="49" man="1"/>
   </colBreaks>
